--- a/media/output_autobuilder.xlsx
+++ b/media/output_autobuilder.xlsx
@@ -464,46 +464,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jobangebote grünau wien</t>
+          <t>jobangebote grünau wien neudstart</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>st pölten büro kundenservice job</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>omv job wiener neustadt wien</t>
+          <t>jobangebote grünau wien neudstart in</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>st pölten büro kundenservice job</t>
+          <t>lehrstellen elektrotechnik wien</t>
         </is>
       </c>
     </row>
